--- a/Measuring_raw.xlsx
+++ b/Measuring_raw.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Back Neck Width</t>
   </si>
@@ -60,6 +60,18 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>Accuracy %</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -250,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,19 +270,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,13 +321,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -338,7 +360,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -356,96 +378,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF4F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF8601"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF4F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF8601"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF4F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -484,8 +416,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -804,231 +736,276 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="G2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
       <c r="M2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="26"/>
       <c r="S2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="20" t="s">
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="26"/>
+      <c r="X2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+    </row>
+    <row r="3" spans="1:28" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="20" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="O3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="P3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="T3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="20" t="s">
+      <c r="U3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="X3" s="17"/>
+      <c r="Y3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="AA3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
         <v>19.2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>54.6</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>54.4</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>73.599999999999994</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>19.2</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>55</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>55.5</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>74.7</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="8">
+      <c r="L4" s="8"/>
+      <c r="M4" s="4">
         <v>1</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="6">
         <f>B4-H4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="6">
         <f t="shared" ref="O4:Q19" si="0">C4-I4</f>
         <v>-0.39999999999999858</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="6">
         <f t="shared" si="0"/>
         <v>-1.1000000000000014</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="7">
         <f t="shared" si="0"/>
         <v>-1.1000000000000085</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="11"/>
+      <c r="X4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="22">
+        <f>100-((ABS(N4)/H4)*100)</f>
+        <v>100</v>
+      </c>
+      <c r="Z4" s="22">
+        <f t="shared" ref="Z4:AB4" si="1">100-((ABS(O4)/I4)*100)</f>
+        <v>99.27272727272728</v>
+      </c>
+      <c r="AA4" s="22">
+        <f t="shared" si="1"/>
+        <v>98.018018018018012</v>
+      </c>
+      <c r="AB4" s="23">
+        <f t="shared" si="1"/>
+        <v>98.527443105756348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>18.8</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>55</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>54.1</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>77.7</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="4">
         <v>2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>18.3</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="6">
         <v>54.7</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>55</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>76</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="8">
+      <c r="L5" s="8"/>
+      <c r="M5" s="4">
         <v>2</v>
       </c>
-      <c r="N5" s="10">
-        <f t="shared" ref="N5:N28" si="1">B5-H5</f>
+      <c r="N5" s="6">
+        <f t="shared" ref="N5:N28" si="2">B5-H5</f>
         <v>0.5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="6">
         <f t="shared" si="0"/>
         <v>0.29999999999999716</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="6">
         <f t="shared" si="0"/>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="7">
         <f t="shared" si="0"/>
         <v>1.7000000000000028</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="9">
         <v>-0.5</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="10">
         <v>0.5</v>
       </c>
-      <c r="U5" s="14">
+      <c r="U5" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;=-0.5",N4:Q28,"&lt;=0.5")</f>
         <v>36</v>
       </c>
@@ -1036,1274 +1013,1801 @@
         <f>SUM(U5)</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="X5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="22">
+        <f t="shared" ref="Y5:Y28" si="3">100-((ABS(N5)/H5)*100)</f>
+        <v>97.267759562841533</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" ref="Z5:Z28" si="4">100-((ABS(O5)/I5)*100)</f>
+        <v>99.451553930530167</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" ref="AA5:AA28" si="5">100-((ABS(P5)/J5)*100)</f>
+        <v>98.36363636363636</v>
+      </c>
+      <c r="AB5" s="23">
+        <f t="shared" ref="AB5:AB28" si="6">100-((ABS(Q5)/K5)*100)</f>
+        <v>97.763157894736835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>53.5</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>54.2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>75.2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <v>18.2</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="6">
         <v>54.6</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="6">
         <v>55</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="7">
         <v>75.099999999999994</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="8">
+      <c r="L6" s="8"/>
+      <c r="M6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="10">
-        <f t="shared" si="1"/>
+      <c r="N6" s="6">
+        <f t="shared" si="2"/>
         <v>0.69999999999999929</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="6">
         <f t="shared" si="0"/>
         <v>-1.1000000000000014</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
         <v>-0.79999999999999716</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="7">
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="11"/>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="22">
+        <f t="shared" si="3"/>
+        <v>96.15384615384616</v>
+      </c>
+      <c r="Z6" s="22">
+        <f t="shared" si="4"/>
+        <v>97.985347985347985</v>
+      </c>
+      <c r="AA6" s="22">
+        <f t="shared" si="5"/>
+        <v>98.545454545454547</v>
+      </c>
+      <c r="AB6" s="23">
+        <f t="shared" si="6"/>
+        <v>99.86684420772302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>53.4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>54.8</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>75.2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>18.2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="6">
         <v>55.2</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="6">
         <v>56.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="7">
         <v>75.2</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="8">
+      <c r="L7" s="8"/>
+      <c r="M7" s="4">
         <v>4</v>
       </c>
-      <c r="N7" s="10">
-        <f t="shared" si="1"/>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
         <v>-9.9999999999997868E-2</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="6">
         <f t="shared" si="0"/>
         <v>-1.8000000000000043</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
         <v>-1.4000000000000057</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="9">
         <v>-1</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="10">
         <v>-0.6</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;=-1",N4:Q28,"&lt;-0.5")</f>
         <v>20</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="28">
         <f>SUM(U7:U8)</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="X7" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="22">
+        <f t="shared" si="3"/>
+        <v>99.45054945054946</v>
+      </c>
+      <c r="Z7" s="22">
+        <f t="shared" si="4"/>
+        <v>96.739130434782595</v>
+      </c>
+      <c r="AA7" s="22">
+        <f t="shared" si="5"/>
+        <v>97.508896797153014</v>
+      </c>
+      <c r="AB7" s="23">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <v>18.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>53.4</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>54.6</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>75</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="6">
         <v>56</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="6">
         <v>55.1</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <v>75.5</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="8">
+      <c r="L8" s="8"/>
+      <c r="M8" s="4">
         <v>5</v>
       </c>
-      <c r="N8" s="10">
-        <f t="shared" si="1"/>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
         <v>-0.60000000000000142</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="6">
         <f t="shared" si="0"/>
         <v>-2.6000000000000014</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="6">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="7">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="9">
         <v>0.6</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="10">
         <v>1</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;0.5",N4:Q28,"&lt;=1")</f>
         <v>3</v>
       </c>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="V8" s="28"/>
+      <c r="X8" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="22">
+        <f t="shared" si="3"/>
+        <v>96.858638743455487</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" si="4"/>
+        <v>95.357142857142861</v>
+      </c>
+      <c r="AA8" s="22">
+        <f t="shared" si="5"/>
+        <v>99.092558983666066</v>
+      </c>
+      <c r="AB8" s="23">
+        <f t="shared" si="6"/>
+        <v>99.337748344370866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <v>19.5</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>54.2</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>53.7</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>77.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="6">
         <v>18</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="6">
         <v>55.5</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="6">
         <v>55.5</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="7">
         <v>75.2</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="8">
+      <c r="L9" s="8"/>
+      <c r="M9" s="4">
         <v>6</v>
       </c>
-      <c r="N9" s="10">
-        <f t="shared" si="1"/>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="6">
         <f t="shared" si="0"/>
         <v>-1.2999999999999972</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="S9" s="13"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="11"/>
+      <c r="X9" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="22">
+        <f t="shared" si="3"/>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="4"/>
+        <v>97.657657657657666</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="5"/>
+        <v>96.756756756756758</v>
+      </c>
+      <c r="AB9" s="23">
+        <f t="shared" si="6"/>
+        <v>97.340425531914889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>17.7</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>54.1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>53.2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>75.400000000000006</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>7</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="6">
         <v>17.7</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="6">
         <v>55</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="6">
         <v>55.5</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <v>76</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="8">
+      <c r="L10" s="8"/>
+      <c r="M10" s="4">
         <v>7</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" si="1"/>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="6">
         <f t="shared" si="0"/>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="6">
         <f t="shared" si="0"/>
         <v>-2.2999999999999972</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="7">
         <f t="shared" si="0"/>
         <v>-0.59999999999999432</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="14">
+      <c r="S10" s="9"/>
+      <c r="T10" s="10">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="U10" s="14">
+      <c r="U10" s="10">
         <f>COUNTIF(N4:Q28,"&lt;-1")</f>
         <v>35</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="27">
         <f>SUM(U10:U11)</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="X10" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="4"/>
+        <v>98.36363636363636</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="5"/>
+        <v>95.855855855855864</v>
+      </c>
+      <c r="AB10" s="23">
+        <f t="shared" si="6"/>
+        <v>99.21052631578948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>17.8</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>53.9</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>54.2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>75.2</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="4">
         <v>8</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="6">
         <v>18.2</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="6">
         <v>55.3</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="6">
         <v>55.6</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <v>75</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="8">
+      <c r="L11" s="8"/>
+      <c r="M11" s="4">
         <v>8</v>
       </c>
-      <c r="N11" s="10">
-        <f t="shared" si="1"/>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
         <v>-0.39999999999999858</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="6">
         <f t="shared" si="0"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="6">
         <f t="shared" si="0"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="7">
         <f t="shared" si="0"/>
         <v>0.20000000000000284</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14">
+      <c r="T11" s="10"/>
+      <c r="U11" s="10">
         <f>COUNTIF(N4:Q28,"&gt;1")</f>
         <v>6</v>
       </c>
-      <c r="V11" s="4"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="V11" s="27"/>
+      <c r="X11" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="3"/>
+        <v>97.80219780219781</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="4"/>
+        <v>97.468354430379748</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="5"/>
+        <v>97.482014388489205</v>
+      </c>
+      <c r="AB11" s="23">
+        <f t="shared" si="6"/>
+        <v>99.733333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="6">
         <v>18.5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>54.8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>54.1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>75.2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="4">
         <v>9</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>55.6</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="6">
         <v>56</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="7">
         <v>75.099999999999994</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="8">
+      <c r="L12" s="8"/>
+      <c r="M12" s="4">
         <v>9</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="1"/>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
         <v>-0.60000000000000142</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="6">
         <f t="shared" si="0"/>
         <v>-0.80000000000000426</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="6">
         <f t="shared" si="0"/>
         <v>-1.8999999999999986</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="7">
         <f t="shared" si="0"/>
         <v>0.10000000000000853</v>
       </c>
-      <c r="S12" s="13"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="11"/>
+      <c r="X12" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="3"/>
+        <v>96.858638743455487</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="4"/>
+        <v>98.561151079136678</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="5"/>
+        <v>96.607142857142861</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="6"/>
+        <v>99.86684420772302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>54.6</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>53.7</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>74.3</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>10</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>18.3</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>55.1</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="6">
         <v>54.8</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="7">
         <v>74.8</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="8">
+      <c r="L13" s="8"/>
+      <c r="M13" s="4">
         <v>10</v>
       </c>
-      <c r="N13" s="10">
-        <f t="shared" si="1"/>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
         <v>-0.19999999999999929</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="6">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="6">
         <f t="shared" si="0"/>
         <v>-1.0999999999999943</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="7">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="25">
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="20">
         <f>SUM(V5:V11)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="X13" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="3"/>
+        <v>98.907103825136616</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="4"/>
+        <v>99.092558983666066</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="5"/>
+        <v>97.992700729927023</v>
+      </c>
+      <c r="AB13" s="23">
+        <f t="shared" si="6"/>
+        <v>99.331550802139034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>18.5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>54.6</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>54.1</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>74.3</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4">
         <v>11</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <v>18.5</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>55</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="6">
         <v>56</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="7">
         <v>75</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="8">
+      <c r="L14" s="8"/>
+      <c r="M14" s="4">
         <v>11</v>
       </c>
-      <c r="N14" s="10">
-        <f t="shared" si="1"/>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="6">
         <f t="shared" si="0"/>
         <v>-0.39999999999999858</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="6">
         <f t="shared" si="0"/>
         <v>-1.8999999999999986</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="7">
         <f t="shared" si="0"/>
         <v>-0.70000000000000284</v>
       </c>
-      <c r="S14" s="16"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="26"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="S14" s="12"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="21"/>
+      <c r="X14" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="4"/>
+        <v>99.27272727272728</v>
+      </c>
+      <c r="AA14" s="22">
+        <f t="shared" si="5"/>
+        <v>96.607142857142861</v>
+      </c>
+      <c r="AB14" s="23">
+        <f t="shared" si="6"/>
+        <v>99.066666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="6">
         <v>19.5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>55.1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>55.1</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>77.099999999999994</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="4">
         <v>12</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <v>18.5</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>55.6</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="6">
         <v>56.3</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="8">
+      <c r="L15" s="8"/>
+      <c r="M15" s="4">
         <v>12</v>
       </c>
-      <c r="N15" s="10">
-        <f t="shared" si="1"/>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="6">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="6">
         <f t="shared" si="0"/>
         <v>-1.1999999999999957</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="7">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="X15" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="22">
+        <f t="shared" si="3"/>
+        <v>94.594594594594597</v>
+      </c>
+      <c r="Z15" s="22">
+        <f t="shared" si="4"/>
+        <v>99.100719424460436</v>
+      </c>
+      <c r="AA15" s="22">
+        <f t="shared" si="5"/>
+        <v>97.86856127886324</v>
+      </c>
+      <c r="AB15" s="23">
+        <f t="shared" si="6"/>
+        <v>96.648793565683647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>54.2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>54.3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>74.3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="4">
         <v>13</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>55.2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="6">
         <v>56.5</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="7">
         <v>73.900000000000006</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="8">
+      <c r="L16" s="8"/>
+      <c r="M16" s="4">
         <v>13</v>
       </c>
-      <c r="N16" s="10">
-        <f t="shared" si="1"/>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
         <v>0.79999999999999716</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="6">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="6">
         <f t="shared" si="0"/>
         <v>-2.2000000000000028</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="7">
         <f t="shared" si="0"/>
         <v>0.39999999999999147</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="X16" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="22">
+        <f t="shared" si="3"/>
+        <v>95.580110497237584</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="4"/>
+        <v>98.188405797101453</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="5"/>
+        <v>96.106194690265482</v>
+      </c>
+      <c r="AB16" s="23">
+        <f t="shared" si="6"/>
+        <v>99.458728010825453</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="6">
         <v>53.9</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>53.2</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4">
         <v>14</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>18</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>55</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="6">
         <v>55.6</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="7">
         <v>76.400000000000006</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="8">
+      <c r="L17" s="8"/>
+      <c r="M17" s="4">
         <v>14</v>
       </c>
-      <c r="N17" s="10">
-        <f t="shared" si="1"/>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="6">
         <f t="shared" si="0"/>
         <v>-1.1000000000000014</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="6">
         <f t="shared" si="0"/>
         <v>-2.3999999999999986</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="7">
         <f t="shared" si="0"/>
         <v>-1.8000000000000114</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="X17" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="22">
+        <f t="shared" si="3"/>
+        <v>99.444444444444443</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="5"/>
+        <v>95.683453237410077</v>
+      </c>
+      <c r="AB17" s="23">
+        <f t="shared" si="6"/>
+        <v>97.643979057591608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>18.899999999999999</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>53</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="6">
         <v>54.1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>73.7</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="4">
         <v>15</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="6">
         <v>19.2</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="6">
         <v>55.6</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="6">
         <v>55</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="7">
         <v>74.5</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="8">
+      <c r="L18" s="8"/>
+      <c r="M18" s="4">
         <v>15</v>
       </c>
-      <c r="N18" s="10">
-        <f t="shared" si="1"/>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
         <v>-0.30000000000000071</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="6">
         <f t="shared" si="0"/>
         <v>-2.6000000000000014</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="6">
         <f t="shared" si="0"/>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="7">
         <f t="shared" si="0"/>
         <v>-0.79999999999999716</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="X18" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="3"/>
+        <v>98.4375</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="4"/>
+        <v>95.323741007194243</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" si="5"/>
+        <v>98.36363636363636</v>
+      </c>
+      <c r="AB18" s="23">
+        <f t="shared" si="6"/>
+        <v>98.926174496644293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="6">
         <v>18.2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="6">
         <v>54.1</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="6">
         <v>55.1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>75.7</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="4">
         <v>16</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>55.5</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="6">
         <v>54</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="7">
         <v>76.2</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="8">
+      <c r="L19" s="8"/>
+      <c r="M19" s="4">
         <v>16</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="1"/>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
         <v>9.9999999999997868E-2</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="6">
         <f t="shared" si="0"/>
         <v>-1.3999999999999986</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="6">
         <f t="shared" si="0"/>
         <v>1.1000000000000014</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="7">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="X19" s="4">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="3"/>
+        <v>99.44751381215471</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="4"/>
+        <v>97.477477477477478</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="5"/>
+        <v>97.962962962962962</v>
+      </c>
+      <c r="AB19" s="23">
+        <f t="shared" si="6"/>
+        <v>99.343832020997382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>18.100000000000001</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>53.1</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="6">
         <v>54.2</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>75.599999999999994</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4">
         <v>17</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="6">
         <v>18</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>54.9</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="6">
         <v>55.3</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="7">
         <v>75.099999999999994</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="8">
+      <c r="L20" s="8"/>
+      <c r="M20" s="4">
         <v>17</v>
       </c>
-      <c r="N20" s="10">
-        <f t="shared" si="1"/>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
         <v>0.10000000000000142</v>
       </c>
-      <c r="O20" s="10">
-        <f t="shared" ref="O20:O28" si="2">C20-I20</f>
+      <c r="O20" s="6">
+        <f t="shared" ref="O20:O28" si="7">C20-I20</f>
         <v>-1.7999999999999972</v>
       </c>
-      <c r="P20" s="10">
-        <f t="shared" ref="P20:P28" si="3">D20-J20</f>
+      <c r="P20" s="6">
+        <f t="shared" ref="P20:P28" si="8">D20-J20</f>
         <v>-1.0999999999999943</v>
       </c>
-      <c r="Q20" s="11">
-        <f t="shared" ref="Q20:Q28" si="4">E20-K20</f>
+      <c r="Q20" s="7">
+        <f t="shared" ref="Q20:Q28" si="9">E20-K20</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="X20" s="4">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="22">
+        <f t="shared" si="3"/>
+        <v>99.444444444444443</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="4"/>
+        <v>96.721311475409834</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" si="5"/>
+        <v>98.010849909584095</v>
+      </c>
+      <c r="AB20" s="23">
+        <f t="shared" si="6"/>
+        <v>99.334221038615183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="6">
         <v>17.899999999999999</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="6">
         <v>53.2</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="6">
         <v>54.2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>77</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="4">
         <v>18</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="6">
         <v>18.3</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>55.9</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="6">
         <v>55.2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="7">
         <v>74.599999999999994</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="8">
+      <c r="L21" s="8"/>
+      <c r="M21" s="4">
         <v>18</v>
       </c>
-      <c r="N21" s="10">
-        <f t="shared" si="1"/>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
         <v>-0.40000000000000213</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="6">
+        <f t="shared" si="7"/>
+        <v>-2.6999999999999957</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="9"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="X21" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" si="3"/>
+        <v>97.814207650273218</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="4"/>
+        <v>95.169946332737041</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" si="5"/>
+        <v>98.188405797101453</v>
+      </c>
+      <c r="AB21" s="23">
+        <f t="shared" si="6"/>
+        <v>96.782841823056287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>52.8</v>
+      </c>
+      <c r="D22" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="G22" s="4">
+        <v>19</v>
+      </c>
+      <c r="H22" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I22" s="6">
+        <v>55</v>
+      </c>
+      <c r="J22" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="K22" s="7">
+        <v>75.7</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="4">
+        <v>19</v>
+      </c>
+      <c r="N22" s="6">
         <f t="shared" si="2"/>
-        <v>-2.6999999999999957</v>
-      </c>
-      <c r="P21" s="10">
+        <v>-0.69999999999999929</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="7"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="8"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="9"/>
+        <v>-1.1000000000000085</v>
+      </c>
+      <c r="X22" s="4">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="22">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="11">
+        <v>96.296296296296305</v>
+      </c>
+      <c r="Z22" s="22">
         <f t="shared" si="4"/>
-        <v>2.4000000000000057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>19</v>
-      </c>
-      <c r="B22" s="10">
-        <v>18.2</v>
-      </c>
-      <c r="C22" s="10">
-        <v>52.8</v>
-      </c>
-      <c r="D22" s="10">
+        <v>96</v>
+      </c>
+      <c r="AA22" s="22">
+        <f t="shared" si="5"/>
+        <v>97.302158273381295</v>
+      </c>
+      <c r="AB22" s="23">
+        <f t="shared" si="6"/>
+        <v>98.546895640686913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>53.4</v>
+      </c>
+      <c r="D23" s="6">
+        <v>54.4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>75</v>
+      </c>
+      <c r="G23" s="4">
+        <v>20</v>
+      </c>
+      <c r="H23" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="I23" s="6">
+        <v>55.3</v>
+      </c>
+      <c r="J23" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>75.3</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="4">
+        <v>20</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.8999999999999986</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.80000000000000426</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="X23" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" si="3"/>
+        <v>97.297297297297291</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="4"/>
+        <v>96.56419529837251</v>
+      </c>
+      <c r="AA23" s="22">
+        <f t="shared" si="5"/>
+        <v>98.550724637681157</v>
+      </c>
+      <c r="AB23" s="23">
+        <f t="shared" si="6"/>
+        <v>99.601593625498012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>54.2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>54.4</v>
+      </c>
+      <c r="E24" s="7">
+        <v>75.2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I24" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="K24" s="7">
+        <v>76</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="4">
+        <v>21</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="8"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="X24" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="22">
+        <f t="shared" si="3"/>
+        <v>97.883597883597886</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="4"/>
+        <v>98.366606170598914</v>
+      </c>
+      <c r="AA24" s="22">
+        <f t="shared" si="5"/>
+        <v>97.841726618705025</v>
+      </c>
+      <c r="AB24" s="23">
+        <f t="shared" si="6"/>
+        <v>98.94736842105263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C25" s="6">
         <v>54.1</v>
       </c>
-      <c r="E22" s="11">
+      <c r="D25" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>74.5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>22</v>
+      </c>
+      <c r="H25" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="I25" s="6">
+        <v>55.4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7">
+        <v>75</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="4">
+        <v>22</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.2999999999999972</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="8"/>
+        <v>-0.89999999999999858</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.5</v>
+      </c>
+      <c r="X25" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="22">
+        <f t="shared" si="3"/>
+        <v>97.837837837837839</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="4"/>
+        <v>97.653429602888096</v>
+      </c>
+      <c r="AA25" s="22">
+        <f t="shared" si="5"/>
+        <v>98.36363636363636</v>
+      </c>
+      <c r="AB25" s="23">
+        <f t="shared" si="6"/>
+        <v>99.333333333333329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C26" s="6">
+        <v>53.9</v>
+      </c>
+      <c r="D26" s="6">
+        <v>53.4</v>
+      </c>
+      <c r="E26" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>23</v>
+      </c>
+      <c r="H26" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="I26" s="6">
+        <v>55.6</v>
+      </c>
+      <c r="J26" s="6">
+        <v>55.2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="4">
+        <v>23</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.7000000000000028</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="8"/>
+        <v>-1.8000000000000043</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="9"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="X26" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="22">
+        <f t="shared" si="3"/>
+        <v>96.791443850267385</v>
+      </c>
+      <c r="Z26" s="22">
+        <f t="shared" si="4"/>
+        <v>96.942446043165461</v>
+      </c>
+      <c r="AA26" s="22">
+        <f t="shared" si="5"/>
+        <v>96.739130434782595</v>
+      </c>
+      <c r="AB26" s="23">
+        <f t="shared" si="6"/>
+        <v>99.867724867724874</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C27" s="6">
+        <v>54.1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>55.1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>24</v>
+      </c>
+      <c r="H27" s="6">
+        <v>18</v>
+      </c>
+      <c r="I27" s="6">
+        <v>55.3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>55</v>
+      </c>
+      <c r="K27" s="7">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="4">
+        <v>24</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="7"/>
+        <v>-1.1999999999999957</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="9"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="X27" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y27" s="22">
+        <f t="shared" si="3"/>
+        <v>99.444444444444443</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="4"/>
+        <v>97.830018083182651</v>
+      </c>
+      <c r="AA27" s="22">
+        <f t="shared" si="5"/>
+        <v>99.818181818181813</v>
+      </c>
+      <c r="AB27" s="23">
+        <f t="shared" si="6"/>
+        <v>99.472990777338595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>25</v>
+      </c>
+      <c r="B28" s="14">
+        <v>18.5</v>
+      </c>
+      <c r="C28" s="14">
+        <v>54.1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>53.8</v>
+      </c>
+      <c r="E28" s="15">
         <v>74.599999999999994</v>
       </c>
-      <c r="G22" s="8">
-        <v>19</v>
-      </c>
-      <c r="H22" s="10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="I22" s="10">
-        <v>55</v>
-      </c>
-      <c r="J22" s="10">
-        <v>55.6</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="G28" s="5">
+        <v>25</v>
+      </c>
+      <c r="H28" s="14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="I28" s="14">
+        <v>54.9</v>
+      </c>
+      <c r="J28" s="14">
+        <v>55.4</v>
+      </c>
+      <c r="K28" s="15">
         <v>75.7</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="8">
-        <v>19</v>
-      </c>
-      <c r="N22" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.69999999999999929</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="2"/>
-        <v>-2.2000000000000028</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="3"/>
-        <v>-1.5</v>
-      </c>
-      <c r="Q22" s="11">
-        <f t="shared" si="4"/>
-        <v>-1.1000000000000085</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <v>20</v>
-      </c>
-      <c r="B23" s="10">
-        <v>18</v>
-      </c>
-      <c r="C23" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="D23" s="10">
-        <v>54.4</v>
-      </c>
-      <c r="E23" s="11">
-        <v>75</v>
-      </c>
-      <c r="G23" s="8">
-        <v>20</v>
-      </c>
-      <c r="H23" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="I23" s="10">
-        <v>55.3</v>
-      </c>
-      <c r="J23" s="10">
-        <v>55.2</v>
-      </c>
-      <c r="K23" s="11">
-        <v>75.3</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="8">
-        <v>20</v>
-      </c>
-      <c r="N23" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.5</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="2"/>
-        <v>-1.8999999999999986</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="3"/>
-        <v>-0.80000000000000426</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>21</v>
-      </c>
-      <c r="B24" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="C24" s="10">
-        <v>54.2</v>
-      </c>
-      <c r="D24" s="10">
-        <v>54.4</v>
-      </c>
-      <c r="E24" s="11">
-        <v>75.2</v>
-      </c>
-      <c r="G24" s="8">
-        <v>21</v>
-      </c>
-      <c r="H24" s="10">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="I24" s="10">
-        <v>55.1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>55.6</v>
-      </c>
-      <c r="K24" s="11">
-        <v>76</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="8">
-        <v>21</v>
-      </c>
-      <c r="N24" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.39999999999999858</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="L28" s="8"/>
+      <c r="M28" s="5">
+        <v>25</v>
+      </c>
+      <c r="N28" s="14">
         <f t="shared" si="2"/>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="P24" s="10">
+      <c r="O28" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="P28" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.6000000000000014</v>
+      </c>
+      <c r="Q28" s="15">
+        <f t="shared" si="9"/>
+        <v>-1.1000000000000085</v>
+      </c>
+      <c r="X28" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="22">
         <f t="shared" si="3"/>
-        <v>-1.2000000000000028</v>
-      </c>
-      <c r="Q24" s="11">
+        <v>95.360824742268051</v>
+      </c>
+      <c r="Z28" s="22">
         <f t="shared" si="4"/>
-        <v>-0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C25" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>74.5</v>
-      </c>
-      <c r="G25" s="8">
-        <v>22</v>
-      </c>
-      <c r="H25" s="10">
-        <v>18.5</v>
-      </c>
-      <c r="I25" s="10">
-        <v>55.4</v>
-      </c>
-      <c r="J25" s="10">
-        <v>55</v>
-      </c>
-      <c r="K25" s="11">
-        <v>75</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="8">
-        <v>22</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.39999999999999858</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="2"/>
-        <v>-1.2999999999999972</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="3"/>
-        <v>-0.89999999999999858</v>
-      </c>
-      <c r="Q25" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>23</v>
-      </c>
-      <c r="B26" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C26" s="10">
-        <v>53.9</v>
-      </c>
-      <c r="D26" s="10">
-        <v>53.4</v>
-      </c>
-      <c r="E26" s="11">
-        <v>75.5</v>
-      </c>
-      <c r="G26" s="8">
-        <v>23</v>
-      </c>
-      <c r="H26" s="10">
-        <v>18.7</v>
-      </c>
-      <c r="I26" s="10">
-        <v>55.6</v>
-      </c>
-      <c r="J26" s="10">
-        <v>55.2</v>
-      </c>
-      <c r="K26" s="11">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="8">
-        <v>23</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="1"/>
-        <v>-0.59999999999999787</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="2"/>
-        <v>-1.7000000000000028</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="3"/>
-        <v>-1.8000000000000043</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" si="4"/>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>24</v>
-      </c>
-      <c r="B27" s="10">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C27" s="10">
-        <v>54.1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>55.1</v>
-      </c>
-      <c r="E27" s="11">
-        <v>75.5</v>
-      </c>
-      <c r="G27" s="8">
-        <v>24</v>
-      </c>
-      <c r="H27" s="10">
-        <v>18</v>
-      </c>
-      <c r="I27" s="10">
-        <v>55.3</v>
-      </c>
-      <c r="J27" s="10">
-        <v>55</v>
-      </c>
-      <c r="K27" s="11">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="8">
-        <v>24</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="2"/>
-        <v>-1.1999999999999957</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>25</v>
-      </c>
-      <c r="B28" s="18">
-        <v>18.5</v>
-      </c>
-      <c r="C28" s="18">
-        <v>54.1</v>
-      </c>
-      <c r="D28" s="18">
-        <v>53.8</v>
-      </c>
-      <c r="E28" s="19">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="G28" s="9">
-        <v>25</v>
-      </c>
-      <c r="H28" s="18">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="I28" s="18">
-        <v>54.9</v>
-      </c>
-      <c r="J28" s="18">
-        <v>55.4</v>
-      </c>
-      <c r="K28" s="19">
-        <v>75.7</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="9">
-        <v>25</v>
-      </c>
-      <c r="N28" s="18">
-        <f t="shared" si="1"/>
-        <v>-0.89999999999999858</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" si="2"/>
-        <v>-0.79999999999999716</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="3"/>
-        <v>-1.6000000000000014</v>
-      </c>
-      <c r="Q28" s="19">
-        <f t="shared" si="4"/>
-        <v>-1.1000000000000085</v>
-      </c>
+        <v>98.54280510018215</v>
+      </c>
+      <c r="AA28" s="22">
+        <f t="shared" si="5"/>
+        <v>97.111913357400724</v>
+      </c>
+      <c r="AB28" s="23">
+        <f t="shared" si="6"/>
+        <v>98.546895640686913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y29" s="29">
+        <f>AVERAGE(Y4:Y28)</f>
+        <v>97.6255983497323</v>
+      </c>
+      <c r="Z29" s="29">
+        <f t="shared" ref="Z29:AB29" si="10">AVERAGE(Z4:Z28)</f>
+        <v>97.644123603220208</v>
+      </c>
+      <c r="AA29" s="29">
+        <f t="shared" si="10"/>
+        <v>97.629668555873408</v>
+      </c>
+      <c r="AB29" s="30">
+        <f t="shared" si="10"/>
+        <v>98.899996509195574</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y30" s="31">
+        <f>MIN(Y4:Y28)</f>
+        <v>91.666666666666671</v>
+      </c>
+      <c r="Z30" s="31">
+        <f t="shared" ref="Z30:AB30" si="11">MIN(Z4:Z28)</f>
+        <v>95.169946332737041</v>
+      </c>
+      <c r="AA30" s="31">
+        <f t="shared" si="11"/>
+        <v>95.683453237410077</v>
+      </c>
+      <c r="AB30" s="32">
+        <f t="shared" si="11"/>
+        <v>96.648793565683647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y31" s="31">
+        <f>MAX(Y4:Y28)</f>
+        <v>100</v>
+      </c>
+      <c r="Z31" s="31">
+        <f t="shared" ref="Z31:AB31" si="12">MAX(Z4:Z28)</f>
+        <v>99.451553930530167</v>
+      </c>
+      <c r="AA31" s="31">
+        <f t="shared" si="12"/>
+        <v>99.818181818181813</v>
+      </c>
+      <c r="AB31" s="32">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="12"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="X2:AB2"/>
     <mergeCell ref="V10:V11"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="S2:V2"/>
@@ -2312,15 +2816,15 @@
     <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:Q28">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
       <formula>-0.5</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="notBetween">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="notBetween">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>

--- a/Measuring_raw.xlsx
+++ b/Measuring_raw.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="15345" windowHeight="4455" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValueComparison_1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValueComparison_2" sheetId="2" r:id="rId2"/>
+    <sheet name="VariationComparison" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>Back Neck Width</t>
   </si>
@@ -72,6 +74,24 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>Body Length</t>
+  </si>
+  <si>
+    <t>Date: 04 - 06 - 2018</t>
+  </si>
+  <si>
+    <t>Date: 05 - 06 - 2018</t>
+  </si>
+  <si>
+    <t>Size: M</t>
+  </si>
+  <si>
+    <t>Variation</t>
+  </si>
+  <si>
+    <t>St. Dev</t>
   </si>
 </sst>
 </file>
@@ -262,7 +282,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,6 +349,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,12 +372,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,7 +383,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF8601"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF4F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -416,8 +469,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -738,8 +791,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,40 +825,41 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="G2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="M2" s="24" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="M2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="26"/>
-      <c r="S2" s="24" t="s">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="S2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26"/>
-      <c r="X2" s="24" t="s">
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="30"/>
+      <c r="X2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="26"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="30"/>
     </row>
     <row r="3" spans="1:28" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -913,15 +967,15 @@
         <v>0</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:Q19" si="0">C4-I4</f>
-        <v>-0.39999999999999858</v>
+        <f>C4-I4+1</f>
+        <v>0.60000000000000142</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.1000000000000014</v>
+        <f>D4-J4+1</f>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="Q4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O4:Q19" si="0">E4-K4</f>
         <v>-1.1000000000000085</v>
       </c>
       <c r="S4" s="9"/>
@@ -937,11 +991,11 @@
       </c>
       <c r="Z4" s="22">
         <f t="shared" ref="Z4:AB4" si="1">100-((ABS(O4)/I4)*100)</f>
-        <v>99.27272727272728</v>
+        <v>98.909090909090907</v>
       </c>
       <c r="AA4" s="22">
         <f t="shared" si="1"/>
-        <v>98.018018018018012</v>
+        <v>99.819819819819813</v>
       </c>
       <c r="AB4" s="23">
         <f t="shared" si="1"/>
@@ -988,12 +1042,12 @@
         <v>0.5</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="0"/>
-        <v>0.29999999999999716</v>
+        <f t="shared" ref="O5:P28" si="3">C5-I5+1</f>
+        <v>1.2999999999999972</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.89999999999999858</v>
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="0"/>
@@ -1007,29 +1061,29 @@
       </c>
       <c r="U5" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;=-0.5",N4:Q28,"&lt;=0.5")</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="V5" s="2">
         <f>SUM(U5)</f>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="X5" s="4">
         <v>2</v>
       </c>
       <c r="Y5" s="22">
-        <f t="shared" ref="Y5:Y28" si="3">100-((ABS(N5)/H5)*100)</f>
+        <f t="shared" ref="Y5:Y28" si="4">100-((ABS(N5)/H5)*100)</f>
         <v>97.267759562841533</v>
       </c>
       <c r="Z5" s="22">
-        <f t="shared" ref="Z5:Z28" si="4">100-((ABS(O5)/I5)*100)</f>
-        <v>99.451553930530167</v>
+        <f t="shared" ref="Z5:Z28" si="5">100-((ABS(O5)/I5)*100)</f>
+        <v>97.623400365630715</v>
       </c>
       <c r="AA5" s="22">
-        <f t="shared" ref="AA5:AA28" si="5">100-((ABS(P5)/J5)*100)</f>
-        <v>98.36363636363636</v>
+        <f t="shared" ref="AA5:AA28" si="6">100-((ABS(P5)/J5)*100)</f>
+        <v>99.818181818181813</v>
       </c>
       <c r="AB5" s="23">
-        <f t="shared" ref="AB5:AB28" si="6">100-((ABS(Q5)/K5)*100)</f>
+        <f t="shared" ref="AB5:AB28" si="7">100-((ABS(Q5)/K5)*100)</f>
         <v>97.763157894736835</v>
       </c>
     </row>
@@ -1073,12 +1127,12 @@
         <v>0.69999999999999929</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.1000000000000014</v>
+        <f t="shared" si="3"/>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.79999999999999716</v>
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
       </c>
       <c r="Q6" s="7">
         <f t="shared" si="0"/>
@@ -1092,19 +1146,19 @@
         <v>3</v>
       </c>
       <c r="Y6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.15384615384616</v>
       </c>
       <c r="Z6" s="22">
-        <f t="shared" si="4"/>
-        <v>97.985347985347985</v>
+        <f t="shared" si="5"/>
+        <v>99.81684981684981</v>
       </c>
       <c r="AA6" s="22">
-        <f t="shared" si="5"/>
-        <v>98.545454545454547</v>
+        <f t="shared" si="6"/>
+        <v>99.636363636363626</v>
       </c>
       <c r="AB6" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.86684420772302</v>
       </c>
     </row>
@@ -1148,12 +1202,12 @@
         <v>-9.9999999999997868E-2</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.8000000000000043</v>
+        <f t="shared" si="3"/>
+        <v>-0.80000000000000426</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.4000000000000057</v>
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000568</v>
       </c>
       <c r="Q7" s="7">
         <f t="shared" si="0"/>
@@ -1167,9 +1221,9 @@
       </c>
       <c r="U7" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;=-1",N4:Q28,"&lt;-0.5")</f>
-        <v>20</v>
-      </c>
-      <c r="V7" s="28">
+        <v>18</v>
+      </c>
+      <c r="V7" s="32">
         <f>SUM(U7:U8)</f>
         <v>23</v>
       </c>
@@ -1177,19 +1231,19 @@
         <v>4</v>
       </c>
       <c r="Y7" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.45054945054946</v>
       </c>
       <c r="Z7" s="22">
-        <f t="shared" si="4"/>
-        <v>96.739130434782595</v>
+        <f t="shared" si="5"/>
+        <v>98.550724637681157</v>
       </c>
       <c r="AA7" s="22">
-        <f t="shared" si="5"/>
-        <v>97.508896797153014</v>
+        <f t="shared" si="6"/>
+        <v>99.288256227757998</v>
       </c>
       <c r="AB7" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
     </row>
@@ -1233,12 +1287,12 @@
         <v>-0.60000000000000142</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.6000000000000014</v>
+        <f t="shared" si="3"/>
+        <v>-1.6000000000000014</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="Q8" s="7">
         <f t="shared" si="0"/>
@@ -1252,26 +1306,26 @@
       </c>
       <c r="U8" s="10">
         <f>COUNTIFS(N4:Q28,"&gt;0.5",N4:Q28,"&lt;=1")</f>
-        <v>3</v>
-      </c>
-      <c r="V8" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="V8" s="32"/>
       <c r="X8" s="4">
         <v>5</v>
       </c>
       <c r="Y8" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.858638743455487</v>
       </c>
       <c r="Z8" s="22">
-        <f t="shared" si="4"/>
-        <v>95.357142857142861</v>
+        <f t="shared" si="5"/>
+        <v>97.142857142857139</v>
       </c>
       <c r="AA8" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.092558983666066</v>
       </c>
       <c r="AB8" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.337748344370866</v>
       </c>
     </row>
@@ -1315,12 +1369,12 @@
         <v>1.5</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.2999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.7999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>-0.79999999999999716</v>
       </c>
       <c r="Q9" s="7">
         <f t="shared" si="0"/>
@@ -1334,19 +1388,19 @@
         <v>6</v>
       </c>
       <c r="Y9" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91.666666666666671</v>
       </c>
       <c r="Z9" s="22">
-        <f t="shared" si="4"/>
-        <v>97.657657657657666</v>
+        <f t="shared" si="5"/>
+        <v>99.459459459459467</v>
       </c>
       <c r="AA9" s="22">
-        <f t="shared" si="5"/>
-        <v>96.756756756756758</v>
+        <f t="shared" si="6"/>
+        <v>98.558558558558559</v>
       </c>
       <c r="AB9" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.340425531914889</v>
       </c>
     </row>
@@ -1390,12 +1444,12 @@
         <v>0</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.89999999999999858</v>
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.2999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>-1.2999999999999972</v>
       </c>
       <c r="Q10" s="7">
         <f t="shared" si="0"/>
@@ -1407,29 +1461,29 @@
       </c>
       <c r="U10" s="10">
         <f>COUNTIF(N4:Q28,"&lt;-1")</f>
-        <v>35</v>
-      </c>
-      <c r="V10" s="27">
+        <v>11</v>
+      </c>
+      <c r="V10" s="31">
         <f>SUM(U10:U11)</f>
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="X10" s="4">
         <v>7</v>
       </c>
       <c r="Y10" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Z10" s="22">
-        <f t="shared" si="4"/>
-        <v>98.36363636363636</v>
+        <f t="shared" si="5"/>
+        <v>99.818181818181813</v>
       </c>
       <c r="AA10" s="22">
-        <f t="shared" si="5"/>
-        <v>95.855855855855864</v>
+        <f t="shared" si="6"/>
+        <v>97.657657657657666</v>
       </c>
       <c r="AB10" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.21052631578948</v>
       </c>
     </row>
@@ -1473,12 +1527,12 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.3999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.3999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="Q11" s="7">
         <f t="shared" si="0"/>
@@ -1490,26 +1544,26 @@
       <c r="T11" s="10"/>
       <c r="U11" s="10">
         <f>COUNTIF(N4:Q28,"&gt;1")</f>
-        <v>6</v>
-      </c>
-      <c r="V11" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="V11" s="31"/>
       <c r="X11" s="4">
         <v>8</v>
       </c>
       <c r="Y11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.80219780219781</v>
       </c>
       <c r="Z11" s="22">
-        <f t="shared" si="4"/>
-        <v>97.468354430379748</v>
+        <f t="shared" si="5"/>
+        <v>99.276672694394222</v>
       </c>
       <c r="AA11" s="22">
-        <f t="shared" si="5"/>
-        <v>97.482014388489205</v>
+        <f t="shared" si="6"/>
+        <v>99.280575539568346</v>
       </c>
       <c r="AB11" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.733333333333334</v>
       </c>
     </row>
@@ -1553,12 +1607,12 @@
         <v>-0.60000000000000142</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.80000000000000426</v>
+        <f t="shared" si="3"/>
+        <v>0.19999999999999574</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.8999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.89999999999999858</v>
       </c>
       <c r="Q12" s="7">
         <f t="shared" si="0"/>
@@ -1572,19 +1626,19 @@
         <v>9</v>
       </c>
       <c r="Y12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.858638743455487</v>
       </c>
       <c r="Z12" s="22">
-        <f t="shared" si="4"/>
-        <v>98.561151079136678</v>
+        <f t="shared" si="5"/>
+        <v>99.64028776978418</v>
       </c>
       <c r="AA12" s="22">
-        <f t="shared" si="5"/>
-        <v>96.607142857142861</v>
+        <f t="shared" si="6"/>
+        <v>98.392857142857139</v>
       </c>
       <c r="AB12" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.86684420772302</v>
       </c>
     </row>
@@ -1628,12 +1682,12 @@
         <v>-0.19999999999999929</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.0999999999999943</v>
+        <f t="shared" si="3"/>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="Q13" s="7">
         <f t="shared" si="0"/>
@@ -1650,19 +1704,19 @@
         <v>10</v>
       </c>
       <c r="Y13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.907103825136616</v>
       </c>
       <c r="Z13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.092558983666066</v>
       </c>
       <c r="AA13" s="22">
-        <f t="shared" si="5"/>
-        <v>97.992700729927023</v>
+        <f t="shared" si="6"/>
+        <v>99.81751824817519</v>
       </c>
       <c r="AB13" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.331550802139034</v>
       </c>
     </row>
@@ -1706,12 +1760,12 @@
         <v>0</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.39999999999999858</v>
+        <f t="shared" si="3"/>
+        <v>0.60000000000000142</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.8999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.89999999999999858</v>
       </c>
       <c r="Q14" s="7">
         <f t="shared" si="0"/>
@@ -1725,19 +1779,19 @@
         <v>11</v>
       </c>
       <c r="Y14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="Z14" s="22">
-        <f t="shared" si="4"/>
-        <v>99.27272727272728</v>
+        <f t="shared" si="5"/>
+        <v>98.909090909090907</v>
       </c>
       <c r="AA14" s="22">
-        <f t="shared" si="5"/>
-        <v>96.607142857142861</v>
+        <f t="shared" si="6"/>
+        <v>98.392857142857139</v>
       </c>
       <c r="AB14" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.066666666666663</v>
       </c>
     </row>
@@ -1781,12 +1835,12 @@
         <v>1</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.1999999999999957</v>
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999574</v>
       </c>
       <c r="Q15" s="7">
         <f t="shared" si="0"/>
@@ -1796,19 +1850,19 @@
         <v>12</v>
       </c>
       <c r="Y15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94.594594594594597</v>
       </c>
       <c r="Z15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>99.100719424460436</v>
       </c>
       <c r="AA15" s="22">
-        <f t="shared" si="5"/>
-        <v>97.86856127886324</v>
+        <f t="shared" si="6"/>
+        <v>99.644760213143883</v>
       </c>
       <c r="AB15" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.648793565683647</v>
       </c>
     </row>
@@ -1852,12 +1906,12 @@
         <v>0.79999999999999716</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.2000000000000028</v>
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000028</v>
       </c>
       <c r="Q16" s="7">
         <f t="shared" si="0"/>
@@ -1867,19 +1921,19 @@
         <v>13</v>
       </c>
       <c r="Y16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.580110497237584</v>
       </c>
       <c r="Z16" s="22">
-        <f t="shared" si="4"/>
-        <v>98.188405797101453</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="AA16" s="22">
-        <f t="shared" si="5"/>
-        <v>96.106194690265482</v>
+        <f t="shared" si="6"/>
+        <v>97.876106194690266</v>
       </c>
       <c r="AB16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.458728010825453</v>
       </c>
     </row>
@@ -1923,12 +1977,12 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.1000000000000014</v>
+        <f t="shared" si="3"/>
+        <v>-0.10000000000000142</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.3999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-1.3999999999999986</v>
       </c>
       <c r="Q17" s="7">
         <f t="shared" si="0"/>
@@ -1938,19 +1992,19 @@
         <v>14</v>
       </c>
       <c r="Y17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.444444444444443</v>
       </c>
       <c r="Z17" s="22">
-        <f t="shared" si="4"/>
-        <v>98</v>
+        <f t="shared" si="5"/>
+        <v>99.818181818181813</v>
       </c>
       <c r="AA17" s="22">
-        <f t="shared" si="5"/>
-        <v>95.683453237410077</v>
+        <f t="shared" si="6"/>
+        <v>97.482014388489205</v>
       </c>
       <c r="AB17" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.643979057591608</v>
       </c>
     </row>
@@ -1994,12 +2048,12 @@
         <v>-0.30000000000000071</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="0"/>
-        <v>-2.6000000000000014</v>
+        <f t="shared" si="3"/>
+        <v>-1.6000000000000014</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="0"/>
-        <v>-0.89999999999999858</v>
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="Q18" s="7">
         <f t="shared" si="0"/>
@@ -2009,19 +2063,19 @@
         <v>15</v>
       </c>
       <c r="Y18" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98.4375</v>
       </c>
       <c r="Z18" s="22">
-        <f t="shared" si="4"/>
-        <v>95.323741007194243</v>
+        <f t="shared" si="5"/>
+        <v>97.122302158273385</v>
       </c>
       <c r="AA18" s="22">
-        <f t="shared" si="5"/>
-        <v>98.36363636363636</v>
+        <f t="shared" si="6"/>
+        <v>99.818181818181813</v>
       </c>
       <c r="AB18" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.926174496644293</v>
       </c>
     </row>
@@ -2065,12 +2119,12 @@
         <v>9.9999999999997868E-2</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="0"/>
-        <v>-1.3999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.39999999999999858</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1000000000000014</v>
+        <f t="shared" si="3"/>
+        <v>2.1000000000000014</v>
       </c>
       <c r="Q19" s="7">
         <f t="shared" si="0"/>
@@ -2080,19 +2134,19 @@
         <v>16</v>
       </c>
       <c r="Y19" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.44751381215471</v>
       </c>
       <c r="Z19" s="22">
-        <f t="shared" si="4"/>
-        <v>97.477477477477478</v>
+        <f t="shared" si="5"/>
+        <v>99.27927927927928</v>
       </c>
       <c r="AA19" s="22">
-        <f t="shared" si="5"/>
-        <v>97.962962962962962</v>
+        <f t="shared" si="6"/>
+        <v>96.111111111111114</v>
       </c>
       <c r="AB19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.343832020997382</v>
       </c>
     </row>
@@ -2136,34 +2190,34 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" ref="O20:O28" si="7">C20-I20</f>
-        <v>-1.7999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>-0.79999999999999716</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" ref="P20:P28" si="8">D20-J20</f>
-        <v>-1.0999999999999943</v>
+        <f t="shared" si="3"/>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="Q20" s="7">
-        <f t="shared" ref="Q20:Q28" si="9">E20-K20</f>
+        <f t="shared" ref="Q20:Q28" si="8">E20-K20</f>
         <v>0.5</v>
       </c>
       <c r="X20" s="4">
         <v>17</v>
       </c>
       <c r="Y20" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.444444444444443</v>
       </c>
       <c r="Z20" s="22">
-        <f t="shared" si="4"/>
-        <v>96.721311475409834</v>
+        <f t="shared" si="5"/>
+        <v>98.54280510018215</v>
       </c>
       <c r="AA20" s="22">
-        <f t="shared" si="5"/>
-        <v>98.010849909584095</v>
+        <f t="shared" si="6"/>
+        <v>99.81916817359857</v>
       </c>
       <c r="AB20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.334221038615183</v>
       </c>
     </row>
@@ -2207,34 +2261,34 @@
         <v>-0.40000000000000213</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="7"/>
-        <v>-2.6999999999999957</v>
+        <f t="shared" si="3"/>
+        <v>-1.6999999999999957</v>
       </c>
       <c r="P21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
         <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" si="9"/>
         <v>2.4000000000000057</v>
       </c>
       <c r="X21" s="4">
         <v>18</v>
       </c>
       <c r="Y21" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.814207650273218</v>
       </c>
       <c r="Z21" s="22">
-        <f t="shared" si="4"/>
-        <v>95.169946332737041</v>
+        <f t="shared" si="5"/>
+        <v>96.958855098389989</v>
       </c>
       <c r="AA21" s="22">
-        <f t="shared" si="5"/>
-        <v>98.188405797101453</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="AB21" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.782841823056287</v>
       </c>
     </row>
@@ -2278,34 +2332,34 @@
         <v>-0.69999999999999929</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="7"/>
-        <v>-2.2000000000000028</v>
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000028</v>
       </c>
       <c r="P22" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q22" s="7">
         <f t="shared" si="8"/>
-        <v>-1.5</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="9"/>
         <v>-1.1000000000000085</v>
       </c>
       <c r="X22" s="4">
         <v>19</v>
       </c>
       <c r="Y22" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.296296296296305</v>
       </c>
       <c r="Z22" s="22">
-        <f t="shared" si="4"/>
-        <v>96</v>
+        <f t="shared" si="5"/>
+        <v>97.818181818181813</v>
       </c>
       <c r="AA22" s="22">
-        <f t="shared" si="5"/>
-        <v>97.302158273381295</v>
+        <f t="shared" si="6"/>
+        <v>99.100719424460436</v>
       </c>
       <c r="AB22" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.546895640686913</v>
       </c>
     </row>
@@ -2349,34 +2403,34 @@
         <v>-0.5</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="7"/>
-        <v>-1.8999999999999986</v>
+        <f t="shared" si="3"/>
+        <v>-0.89999999999999858</v>
       </c>
       <c r="P23" s="6">
+        <f t="shared" si="3"/>
+        <v>0.19999999999999574</v>
+      </c>
+      <c r="Q23" s="7">
         <f t="shared" si="8"/>
-        <v>-0.80000000000000426</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="9"/>
         <v>-0.29999999999999716</v>
       </c>
       <c r="X23" s="4">
         <v>20</v>
       </c>
       <c r="Y23" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.297297297297291</v>
       </c>
       <c r="Z23" s="22">
-        <f t="shared" si="4"/>
-        <v>96.56419529837251</v>
+        <f t="shared" si="5"/>
+        <v>98.372513562386985</v>
       </c>
       <c r="AA23" s="22">
-        <f t="shared" si="5"/>
-        <v>98.550724637681157</v>
+        <f t="shared" si="6"/>
+        <v>99.637681159420296</v>
       </c>
       <c r="AB23" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.601593625498012</v>
       </c>
     </row>
@@ -2420,34 +2474,34 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="7"/>
-        <v>-0.89999999999999858</v>
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
       </c>
       <c r="P24" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="Q24" s="7">
         <f t="shared" si="8"/>
-        <v>-1.2000000000000028</v>
-      </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="9"/>
         <v>-0.79999999999999716</v>
       </c>
       <c r="X24" s="4">
         <v>21</v>
       </c>
       <c r="Y24" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.883597883597886</v>
       </c>
       <c r="Z24" s="22">
-        <f t="shared" si="4"/>
-        <v>98.366606170598914</v>
+        <f t="shared" si="5"/>
+        <v>99.818511796733205</v>
       </c>
       <c r="AA24" s="22">
-        <f t="shared" si="5"/>
-        <v>97.841726618705025</v>
+        <f t="shared" si="6"/>
+        <v>99.640287769784166</v>
       </c>
       <c r="AB24" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.94736842105263</v>
       </c>
     </row>
@@ -2491,34 +2545,34 @@
         <v>-0.39999999999999858</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="7"/>
-        <v>-1.2999999999999972</v>
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999716</v>
       </c>
       <c r="P25" s="6">
+        <f t="shared" si="3"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Q25" s="7">
         <f t="shared" si="8"/>
-        <v>-0.89999999999999858</v>
-      </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
       <c r="X25" s="4">
         <v>22</v>
       </c>
       <c r="Y25" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97.837837837837839</v>
       </c>
       <c r="Z25" s="22">
-        <f t="shared" si="4"/>
-        <v>97.653429602888096</v>
+        <f t="shared" si="5"/>
+        <v>99.458483754512642</v>
       </c>
       <c r="AA25" s="22">
-        <f t="shared" si="5"/>
-        <v>98.36363636363636</v>
+        <f t="shared" si="6"/>
+        <v>99.818181818181813</v>
       </c>
       <c r="AB25" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.333333333333329</v>
       </c>
     </row>
@@ -2562,34 +2616,34 @@
         <v>-0.59999999999999787</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="7"/>
-        <v>-1.7000000000000028</v>
+        <f t="shared" si="3"/>
+        <v>-0.70000000000000284</v>
       </c>
       <c r="P26" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.80000000000000426</v>
+      </c>
+      <c r="Q26" s="7">
         <f t="shared" si="8"/>
-        <v>-1.8000000000000043</v>
-      </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="9"/>
         <v>-9.9999999999994316E-2</v>
       </c>
       <c r="X26" s="4">
         <v>23</v>
       </c>
       <c r="Y26" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96.791443850267385</v>
       </c>
       <c r="Z26" s="22">
-        <f t="shared" si="4"/>
-        <v>96.942446043165461</v>
+        <f t="shared" si="5"/>
+        <v>98.741007194244602</v>
       </c>
       <c r="AA26" s="22">
-        <f t="shared" si="5"/>
-        <v>96.739130434782595</v>
+        <f t="shared" si="6"/>
+        <v>98.550724637681157</v>
       </c>
       <c r="AB26" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.867724867724874</v>
       </c>
     </row>
@@ -2633,34 +2687,34 @@
         <v>0.10000000000000142</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="7"/>
-        <v>-1.1999999999999957</v>
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999574</v>
       </c>
       <c r="P27" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000014</v>
+      </c>
+      <c r="Q27" s="7">
         <f t="shared" si="8"/>
-        <v>0.10000000000000142</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="9"/>
         <v>-0.40000000000000568</v>
       </c>
       <c r="X27" s="4">
         <v>24</v>
       </c>
       <c r="Y27" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99.444444444444443</v>
       </c>
       <c r="Z27" s="22">
-        <f t="shared" si="4"/>
-        <v>97.830018083182651</v>
+        <f t="shared" si="5"/>
+        <v>99.638336347197111</v>
       </c>
       <c r="AA27" s="22">
-        <f t="shared" si="5"/>
-        <v>99.818181818181813</v>
+        <f t="shared" si="6"/>
+        <v>98</v>
       </c>
       <c r="AB27" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>99.472990777338595</v>
       </c>
     </row>
@@ -2703,35 +2757,35 @@
         <f t="shared" si="2"/>
         <v>-0.89999999999999858</v>
       </c>
-      <c r="O28" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.79999999999999716</v>
-      </c>
-      <c r="P28" s="14">
+      <c r="O28" s="6">
+        <f t="shared" si="3"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="Q28" s="15">
         <f t="shared" si="8"/>
-        <v>-1.6000000000000014</v>
-      </c>
-      <c r="Q28" s="15">
-        <f t="shared" si="9"/>
         <v>-1.1000000000000085</v>
       </c>
       <c r="X28" s="4">
         <v>25</v>
       </c>
       <c r="Y28" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95.360824742268051</v>
       </c>
       <c r="Z28" s="22">
-        <f t="shared" si="4"/>
-        <v>98.54280510018215</v>
+        <f t="shared" si="5"/>
+        <v>99.635701275045534</v>
       </c>
       <c r="AA28" s="22">
-        <f t="shared" si="5"/>
-        <v>97.111913357400724</v>
+        <f t="shared" si="6"/>
+        <v>98.91696750902527</v>
       </c>
       <c r="AB28" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.546895640686913</v>
       </c>
     </row>
@@ -2739,20 +2793,20 @@
       <c r="X29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y29" s="29">
+      <c r="Y29" s="24">
         <f>AVERAGE(Y4:Y28)</f>
         <v>97.6255983497323</v>
       </c>
-      <c r="Z29" s="29">
-        <f t="shared" ref="Z29:AB29" si="10">AVERAGE(Z4:Z28)</f>
-        <v>97.644123603220208</v>
-      </c>
-      <c r="AA29" s="29">
-        <f t="shared" si="10"/>
-        <v>97.629668555873408</v>
-      </c>
-      <c r="AB29" s="30">
-        <f t="shared" si="10"/>
+      <c r="Z29" s="24">
+        <f t="shared" ref="Z29:AB29" si="9">AVERAGE(Z4:Z28)</f>
+        <v>98.901762125350217</v>
+      </c>
+      <c r="AA29" s="24">
+        <f t="shared" si="9"/>
+        <v>98.966844359729237</v>
+      </c>
+      <c r="AB29" s="25">
+        <f t="shared" si="9"/>
         <v>98.899996509195574</v>
       </c>
     </row>
@@ -2760,20 +2814,20 @@
       <c r="X30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" s="31">
+      <c r="Y30" s="26">
         <f>MIN(Y4:Y28)</f>
         <v>91.666666666666671</v>
       </c>
-      <c r="Z30" s="31">
-        <f t="shared" ref="Z30:AB30" si="11">MIN(Z4:Z28)</f>
-        <v>95.169946332737041</v>
-      </c>
-      <c r="AA30" s="31">
-        <f t="shared" si="11"/>
-        <v>95.683453237410077</v>
-      </c>
-      <c r="AB30" s="32">
-        <f t="shared" si="11"/>
+      <c r="Z30" s="26">
+        <f t="shared" ref="Z30:AB30" si="10">MIN(Z4:Z28)</f>
+        <v>96.958855098389989</v>
+      </c>
+      <c r="AA30" s="26">
+        <f t="shared" si="10"/>
+        <v>96.111111111111114</v>
+      </c>
+      <c r="AB30" s="27">
+        <f t="shared" si="10"/>
         <v>96.648793565683647</v>
       </c>
     </row>
@@ -2781,20 +2835,20 @@
       <c r="X31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y31" s="31">
+      <c r="Y31" s="26">
         <f>MAX(Y4:Y28)</f>
         <v>100</v>
       </c>
-      <c r="Z31" s="31">
-        <f t="shared" ref="Z31:AB31" si="12">MAX(Z4:Z28)</f>
-        <v>99.451553930530167</v>
-      </c>
-      <c r="AA31" s="31">
-        <f t="shared" si="12"/>
-        <v>99.818181818181813</v>
-      </c>
-      <c r="AB31" s="32">
-        <f t="shared" si="12"/>
+      <c r="Z31" s="26">
+        <f t="shared" ref="Z31:AB31" si="11">MAX(Z4:Z28)</f>
+        <v>100</v>
+      </c>
+      <c r="AA31" s="26">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AB31" s="27">
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -2816,15 +2870,15 @@
     <mergeCell ref="M2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:Q28">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
       <formula>-0.5</formula>
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="notBetween">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
       <formula>-1</formula>
       <formula>1</formula>
     </cfRule>
@@ -2832,4 +2886,3272 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB33"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30:AB33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.5703125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="G3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="M3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="30"/>
+      <c r="S3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="30"/>
+      <c r="X3" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="30"/>
+    </row>
+    <row r="4" spans="1:28" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C5" s="6">
+        <v>51.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="I5" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="J5" s="6">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6">
+        <f>B5-H5</f>
+        <v>-1.3000000000000114</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" ref="O5:Q20" si="0">C5-I5</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="11"/>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="22">
+        <f>100-((ABS(N5)/H5)*100)</f>
+        <v>98.216735253772271</v>
+      </c>
+      <c r="Z5" s="22">
+        <f t="shared" ref="Z5:AB20" si="1">100-((ABS(O5)/I5)*100)</f>
+        <v>98.035363457760312</v>
+      </c>
+      <c r="AA5" s="22">
+        <f t="shared" si="1"/>
+        <v>99.607843137254903</v>
+      </c>
+      <c r="AB5" s="23">
+        <f t="shared" si="1"/>
+        <v>97.837837837837839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I6" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="K6" s="7">
+        <v>18</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:Q29" si="2">B6-H6</f>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.2999999999999972</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="10">
+        <f>COUNTIFS(N5:Q29,"&gt;=-0.5",N5:Q29,"&lt;=0.5")</f>
+        <v>75</v>
+      </c>
+      <c r="V6" s="2">
+        <f>SUM(U6)</f>
+        <v>75</v>
+      </c>
+      <c r="X6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="22">
+        <f t="shared" ref="Y6:AB29" si="3">100-((ABS(N6)/H6)*100)</f>
+        <v>99.860917941585541</v>
+      </c>
+      <c r="Z6" s="22">
+        <f t="shared" si="1"/>
+        <v>99.607072691552062</v>
+      </c>
+      <c r="AA6" s="22">
+        <f t="shared" si="1"/>
+        <v>97.465886939571149</v>
+      </c>
+      <c r="AB6" s="23">
+        <f t="shared" si="1"/>
+        <v>98.888888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C7" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D7" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="E7" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>73.8</v>
+      </c>
+      <c r="I7" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="J7" s="6">
+        <v>51</v>
+      </c>
+      <c r="K7" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000426</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="11"/>
+      <c r="X7" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="22">
+        <f t="shared" si="3"/>
+        <v>99.728997289972895</v>
+      </c>
+      <c r="Z7" s="22">
+        <f t="shared" si="1"/>
+        <v>99.408284023668628</v>
+      </c>
+      <c r="AA7" s="22">
+        <f t="shared" si="1"/>
+        <v>97.843137254901961</v>
+      </c>
+      <c r="AB7" s="23">
+        <f t="shared" si="1"/>
+        <v>98.850574712643663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>71.8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I8" s="6">
+        <v>51</v>
+      </c>
+      <c r="J8" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="K8" s="7">
+        <v>19</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="M8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="S8" s="9">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="U8" s="10">
+        <f>COUNTIFS(N5:Q29,"&gt;=-1",N5:Q29,"&lt;-0.5")</f>
+        <v>14</v>
+      </c>
+      <c r="V8" s="32">
+        <f>SUM(U8:U9)</f>
+        <v>18</v>
+      </c>
+      <c r="X8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="22">
+        <f t="shared" si="3"/>
+        <v>98.898071625344357</v>
+      </c>
+      <c r="Z8" s="22">
+        <f t="shared" si="1"/>
+        <v>99.607843137254903</v>
+      </c>
+      <c r="AA8" s="22">
+        <f t="shared" si="1"/>
+        <v>99.602385685884698</v>
+      </c>
+      <c r="AB8" s="23">
+        <f t="shared" si="1"/>
+        <v>97.368421052631575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>71.8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I9" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="J9" s="6">
+        <v>51</v>
+      </c>
+      <c r="K9" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000853</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="T9" s="10">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
+        <f>COUNTIFS(N5:Q29,"&gt;0.5",N5:Q29,"&lt;=1")</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="32"/>
+      <c r="X9" s="4">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="22">
+        <f t="shared" si="3"/>
+        <v>99.860917941585527</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="1"/>
+        <v>99.803536345776024</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="1"/>
+        <v>99.803921568627445</v>
+      </c>
+      <c r="AB9" s="23">
+        <f t="shared" si="1"/>
+        <v>97.159090909090907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>72.8</v>
+      </c>
+      <c r="C10" s="6">
+        <v>51</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I10" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4">
+        <v>6</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="S10" s="9"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="11"/>
+      <c r="X10" s="4">
+        <v>6</v>
+      </c>
+      <c r="Y10" s="22">
+        <f t="shared" si="3"/>
+        <v>99.589603283173744</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="1"/>
+        <v>99.80430528375733</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="1"/>
+        <v>98.431372549019613</v>
+      </c>
+      <c r="AB10" s="23">
+        <f t="shared" si="1"/>
+        <v>99.45054945054946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I11" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="K11" s="7">
+        <v>18</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="4">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="10">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="U11" s="10">
+        <f>COUNTIF(N5:Q29,"&lt;-1")</f>
+        <v>7</v>
+      </c>
+      <c r="V11" s="31">
+        <f>SUM(U11:U12)</f>
+        <v>7</v>
+      </c>
+      <c r="X11" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="3"/>
+        <v>99.310344827586206</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="1"/>
+        <v>97.83889980353635</v>
+      </c>
+      <c r="AB11" s="23">
+        <f t="shared" si="1"/>
+        <v>99.444444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>51</v>
+      </c>
+      <c r="E12" s="7">
+        <v>17.3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I12" s="6">
+        <v>51</v>
+      </c>
+      <c r="J12" s="6">
+        <v>51</v>
+      </c>
+      <c r="K12" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="4">
+        <v>8</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999787</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10">
+        <f>COUNTIF(N5:Q29,"&gt;1")</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="31"/>
+      <c r="X12" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="3"/>
+        <v>99.861878453038685</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="1"/>
+        <v>99.215686274509807</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="1"/>
+        <v>96.648044692737443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>72</v>
+      </c>
+      <c r="C13" s="6">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I13" s="6">
+        <v>51</v>
+      </c>
+      <c r="J13" s="6">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="4">
+        <v>9</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="11"/>
+      <c r="X13" s="4">
+        <v>9</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="3"/>
+        <v>99.861303744798903</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="1"/>
+        <v>99.607843137254903</v>
+      </c>
+      <c r="AB13" s="23">
+        <f t="shared" si="1"/>
+        <v>95.054945054945037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>73</v>
+      </c>
+      <c r="I14" s="6">
+        <v>51</v>
+      </c>
+      <c r="J14" s="6">
+        <v>51.7</v>
+      </c>
+      <c r="K14" s="7">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L14" s="8"/>
+      <c r="M14" s="4">
+        <v>10</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.29999999999999716</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.3000000000000043</v>
+      </c>
+      <c r="Q14" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="20">
+        <f>SUM(V6:V12)</f>
+        <v>100</v>
+      </c>
+      <c r="X14" s="4">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="22">
+        <f t="shared" si="3"/>
+        <v>99.589041095890408</v>
+      </c>
+      <c r="Z14" s="22">
+        <f t="shared" si="1"/>
+        <v>99.607843137254903</v>
+      </c>
+      <c r="AA14" s="22">
+        <f t="shared" si="1"/>
+        <v>97.485493230174072</v>
+      </c>
+      <c r="AB14" s="23">
+        <f t="shared" si="1"/>
+        <v>98.863636363636346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C15" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G15" s="4">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <v>73.5</v>
+      </c>
+      <c r="I15" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>51</v>
+      </c>
+      <c r="K15" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="4">
+        <v>11</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.59999999999999432</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999574</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="21"/>
+      <c r="X15" s="4">
+        <v>11</v>
+      </c>
+      <c r="Y15" s="22">
+        <f t="shared" si="3"/>
+        <v>99.183673469387756</v>
+      </c>
+      <c r="Z15" s="22">
+        <f t="shared" si="1"/>
+        <v>99.608610567514688</v>
+      </c>
+      <c r="AA15" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AB15" s="23">
+        <f t="shared" si="1"/>
+        <v>98.83720930232559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>71.8</v>
+      </c>
+      <c r="C16" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="I16" s="6">
+        <v>51.4</v>
+      </c>
+      <c r="J16" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>18</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" s="4">
+        <v>12</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.90000000000000568</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="X16" s="4">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="22">
+        <f t="shared" si="3"/>
+        <v>98.762035763411276</v>
+      </c>
+      <c r="Z16" s="22">
+        <f t="shared" si="1"/>
+        <v>99.805447470817114</v>
+      </c>
+      <c r="AA16" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="AB16" s="23">
+        <f t="shared" si="1"/>
+        <v>98.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="4">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.69999999999999574</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999574</v>
+      </c>
+      <c r="Q17" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="X17" s="4">
+        <v>13</v>
+      </c>
+      <c r="Y17" s="22">
+        <f t="shared" si="3"/>
+        <v>99.724137931034477</v>
+      </c>
+      <c r="Z17" s="22">
+        <f t="shared" si="1"/>
+        <v>98.635477582846008</v>
+      </c>
+      <c r="AA17" s="22">
+        <f t="shared" si="1"/>
+        <v>99.610136452241719</v>
+      </c>
+      <c r="AB17" s="23">
+        <f t="shared" si="1"/>
+        <v>95.604395604395606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="C18" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D18" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E18" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G18" s="4">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="J18" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="K18" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="4">
+        <v>14</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999574</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999997868E-2</v>
+      </c>
+      <c r="X18" s="4">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="22">
+        <f t="shared" si="3"/>
+        <v>99.449793672627223</v>
+      </c>
+      <c r="Z18" s="22">
+        <f t="shared" si="1"/>
+        <v>99.604743083003953</v>
+      </c>
+      <c r="AA18" s="22">
+        <f t="shared" si="1"/>
+        <v>99.604743083003967</v>
+      </c>
+      <c r="AB18" s="23">
+        <f t="shared" si="1"/>
+        <v>99.45054945054946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="C19" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="E19" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J19" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="L19" s="8"/>
+      <c r="M19" s="4">
+        <v>15</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.90000000000000213</v>
+      </c>
+      <c r="X19" s="4">
+        <v>15</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="3"/>
+        <v>99.444444444444443</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="1"/>
+        <v>99.611650485436883</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="1"/>
+        <v>99.220272904483437</v>
+      </c>
+      <c r="AB19" s="23">
+        <f t="shared" si="1"/>
+        <v>95.161290322580641</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>71.8</v>
+      </c>
+      <c r="C20" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="I20" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="K20" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="4">
+        <v>16</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.30000000000000426</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="0"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="X20" s="4">
+        <v>16</v>
+      </c>
+      <c r="Y20" s="22">
+        <f t="shared" si="3"/>
+        <v>99.30843706777317</v>
+      </c>
+      <c r="Z20" s="22">
+        <f t="shared" si="1"/>
+        <v>99.412915851272004</v>
+      </c>
+      <c r="AA20" s="22">
+        <f t="shared" si="1"/>
+        <v>99.025341130604289</v>
+      </c>
+      <c r="AB20" s="23">
+        <f t="shared" si="1"/>
+        <v>98.907103825136616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C21" s="6">
+        <v>51.7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I21" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>51</v>
+      </c>
+      <c r="K21" s="7">
+        <v>19</v>
+      </c>
+      <c r="L21" s="8"/>
+      <c r="M21" s="4">
+        <v>17</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="X21" s="4">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="22">
+        <f t="shared" si="3"/>
+        <v>99.448275862068954</v>
+      </c>
+      <c r="Z21" s="22">
+        <f t="shared" si="3"/>
+        <v>98.825831702544022</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" si="3"/>
+        <v>97.843137254901961</v>
+      </c>
+      <c r="AB21" s="23">
+        <f t="shared" si="3"/>
+        <v>97.368421052631575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C22" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I22" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="K22" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="4">
+        <v>18</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="X22" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y22" s="22">
+        <f t="shared" si="3"/>
+        <v>99.585635359116026</v>
+      </c>
+      <c r="Z22" s="22">
+        <f t="shared" si="3"/>
+        <v>99.223300970873794</v>
+      </c>
+      <c r="AA22" s="22">
+        <f t="shared" si="3"/>
+        <v>98.821218074656187</v>
+      </c>
+      <c r="AB22" s="23">
+        <f t="shared" si="3"/>
+        <v>98.305084745762713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C23" s="6">
+        <v>51.7</v>
+      </c>
+      <c r="D23" s="6">
+        <v>51</v>
+      </c>
+      <c r="E23" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="G23" s="4">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="I23" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="4">
+        <v>19</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>19</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" si="3"/>
+        <v>99.311294765840216</v>
+      </c>
+      <c r="Z23" s="22">
+        <f t="shared" si="3"/>
+        <v>99.611650485436883</v>
+      </c>
+      <c r="AA23" s="22">
+        <f t="shared" si="3"/>
+        <v>99.80430528375733</v>
+      </c>
+      <c r="AB23" s="23">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>72.8</v>
+      </c>
+      <c r="C24" s="6">
+        <v>51</v>
+      </c>
+      <c r="D24" s="6">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <v>73</v>
+      </c>
+      <c r="I24" s="6">
+        <v>51</v>
+      </c>
+      <c r="J24" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="K24" s="7">
+        <v>18</v>
+      </c>
+      <c r="L24" s="8"/>
+      <c r="M24" s="4">
+        <v>20</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.60000000000000142</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="X24" s="4">
+        <v>20</v>
+      </c>
+      <c r="Y24" s="22">
+        <f t="shared" si="3"/>
+        <v>99.726027397260268</v>
+      </c>
+      <c r="Z24" s="22">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="AA24" s="22">
+        <f t="shared" si="3"/>
+        <v>98.837209302325576</v>
+      </c>
+      <c r="AB24" s="23">
+        <f t="shared" si="3"/>
+        <v>99.444444444444443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>71.8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>51</v>
+      </c>
+      <c r="D25" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="E25" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="G25" s="4">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="J25" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="K25" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L25" s="8"/>
+      <c r="M25" s="4">
+        <v>21</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000142</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.80000000000000426</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="2"/>
+        <v>0.69999999999999929</v>
+      </c>
+      <c r="X25" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="22">
+        <f t="shared" si="3"/>
+        <v>99.445983379501371</v>
+      </c>
+      <c r="Z25" s="22">
+        <f t="shared" si="3"/>
+        <v>99.803536345776024</v>
+      </c>
+      <c r="AA25" s="22">
+        <f t="shared" si="3"/>
+        <v>98.437499999999986</v>
+      </c>
+      <c r="AB25" s="23">
+        <f t="shared" si="3"/>
+        <v>96.132596685082873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>72.8</v>
+      </c>
+      <c r="C26" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D26" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6">
+        <v>73</v>
+      </c>
+      <c r="I26" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="K26" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="4">
+        <v>22</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.69999999999999574</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="2"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="X26" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="22">
+        <f t="shared" si="3"/>
+        <v>99.726027397260268</v>
+      </c>
+      <c r="Z26" s="22">
+        <f t="shared" si="3"/>
+        <v>98.635477582846008</v>
+      </c>
+      <c r="AA26" s="22">
+        <f t="shared" si="3"/>
+        <v>99.21875</v>
+      </c>
+      <c r="AB26" s="23">
+        <f t="shared" si="3"/>
+        <v>98.342541436464103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D27" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E27" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="G27" s="4">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I27" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="J27" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="K27" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="4">
+        <v>23</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.79999999999999716</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="X27" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y27" s="22">
+        <f t="shared" si="3"/>
+        <v>98.905608755129961</v>
+      </c>
+      <c r="Z27" s="22">
+        <f t="shared" si="3"/>
+        <v>99.803536345776024</v>
+      </c>
+      <c r="AA27" s="22">
+        <f t="shared" si="3"/>
+        <v>99.80276134122289</v>
+      </c>
+      <c r="AB27" s="23">
+        <f t="shared" si="3"/>
+        <v>97.80219780219781</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="D28" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="E28" s="7">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>24</v>
+      </c>
+      <c r="H28" s="6">
+        <v>73</v>
+      </c>
+      <c r="I28" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="J28" s="6">
+        <v>52</v>
+      </c>
+      <c r="K28" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="4">
+        <v>24</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999994316E-2</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="2"/>
+        <v>-1.1000000000000014</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.30000000000000071</v>
+      </c>
+      <c r="X28" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y28" s="22">
+        <f t="shared" si="3"/>
+        <v>98.630136986301366</v>
+      </c>
+      <c r="Z28" s="22">
+        <f t="shared" si="3"/>
+        <v>99.801192842942356</v>
+      </c>
+      <c r="AA28" s="22">
+        <f t="shared" si="3"/>
+        <v>97.884615384615387</v>
+      </c>
+      <c r="AB28" s="23">
+        <f t="shared" si="3"/>
+        <v>98.35164835164835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14">
+        <v>73.5</v>
+      </c>
+      <c r="C29" s="14">
+        <v>50.4</v>
+      </c>
+      <c r="D29" s="14">
+        <v>50.9</v>
+      </c>
+      <c r="E29" s="15">
+        <v>18.5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>25</v>
+      </c>
+      <c r="H29" s="14">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="I29" s="14">
+        <v>50.5</v>
+      </c>
+      <c r="J29" s="14">
+        <v>51</v>
+      </c>
+      <c r="K29" s="15">
+        <v>18.2</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="5">
+        <v>25</v>
+      </c>
+      <c r="N29" s="14">
+        <f t="shared" si="2"/>
+        <v>9.9999999999994316E-2</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="Q29" s="15">
+        <f t="shared" si="2"/>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="X29" s="4">
+        <v>25</v>
+      </c>
+      <c r="Y29" s="22">
+        <f t="shared" si="3"/>
+        <v>99.863760217983653</v>
+      </c>
+      <c r="Z29" s="22">
+        <f t="shared" si="3"/>
+        <v>99.801980198019805</v>
+      </c>
+      <c r="AA29" s="22">
+        <f t="shared" si="3"/>
+        <v>99.803921568627445</v>
+      </c>
+      <c r="AB29" s="23">
+        <f t="shared" si="3"/>
+        <v>98.35164835164835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="24">
+        <f>AVERAGE(Y5:Y29)</f>
+        <v>99.411723357035541</v>
+      </c>
+      <c r="Z30" s="24">
+        <f t="shared" ref="Z30:AB30" si="4">AVERAGE(Z5:Z29)</f>
+        <v>99.491011434665594</v>
+      </c>
+      <c r="AA30" s="24">
+        <f t="shared" si="4"/>
+        <v>99.024027803466595</v>
+      </c>
+      <c r="AB30" s="25">
+        <f t="shared" si="4"/>
+        <v>97.998355924624278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="26">
+        <f>MIN(Y5:Y29)</f>
+        <v>98.216735253772271</v>
+      </c>
+      <c r="Z31" s="26">
+        <f t="shared" ref="Z31:AB31" si="5">MIN(Z5:Z29)</f>
+        <v>98.035363457760312</v>
+      </c>
+      <c r="AA31" s="26">
+        <f t="shared" si="5"/>
+        <v>97.465886939571149</v>
+      </c>
+      <c r="AB31" s="27">
+        <f t="shared" si="5"/>
+        <v>95.054945054945037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y32" s="26">
+        <f>MAX(Y5:Y29)</f>
+        <v>99.863760217983653</v>
+      </c>
+      <c r="Z32" s="26">
+        <f t="shared" ref="Z32:AB32" si="6">MAX(Z5:Z29)</f>
+        <v>100</v>
+      </c>
+      <c r="AA32" s="26">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AB32" s="27">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="24:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X33" s="12"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="V8:V9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N5:Q29">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
+      <formula>-0.5</formula>
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>-1</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="notBetween">
+      <formula>-1</formula>
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C7" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="J7" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>18</v>
+      </c>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="K8" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C9" s="6">
+        <v>49.7</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>17.7</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>51</v>
+      </c>
+      <c r="J9" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="K9" s="7">
+        <v>18</v>
+      </c>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="4">
+        <v>6</v>
+      </c>
+      <c r="H10" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>18</v>
+      </c>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C11" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>49.5</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="4">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I11" s="6">
+        <v>51</v>
+      </c>
+      <c r="J11" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="K11" s="7">
+        <v>18</v>
+      </c>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>72</v>
+      </c>
+      <c r="C12" s="6">
+        <v>51.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="4">
+        <v>8</v>
+      </c>
+      <c r="H12" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I12" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E13" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="4">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>18</v>
+      </c>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D14" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="K14" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>72.7</v>
+      </c>
+      <c r="C15" s="6">
+        <v>50.2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>49.8</v>
+      </c>
+      <c r="E15" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>18</v>
+      </c>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6">
+        <v>72</v>
+      </c>
+      <c r="C16" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D16" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="4">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>51</v>
+      </c>
+      <c r="J16" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C17" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D17" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="4">
+        <v>13</v>
+      </c>
+      <c r="H17" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I17" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C18" s="6">
+        <v>51</v>
+      </c>
+      <c r="D18" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="4">
+        <v>14</v>
+      </c>
+      <c r="H18" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>51</v>
+      </c>
+      <c r="J18" s="6">
+        <v>51</v>
+      </c>
+      <c r="K18" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>73</v>
+      </c>
+      <c r="C19" s="6">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6">
+        <v>49.3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4">
+        <v>15</v>
+      </c>
+      <c r="H19" s="6">
+        <v>72</v>
+      </c>
+      <c r="I19" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="J19" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C20" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>49.9</v>
+      </c>
+      <c r="E20" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6">
+        <v>72.2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="K20" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C21" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E21" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="4">
+        <v>17</v>
+      </c>
+      <c r="H21" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6">
+        <v>72.3</v>
+      </c>
+      <c r="C22" s="6">
+        <v>51.6</v>
+      </c>
+      <c r="D22" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="4">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>51.2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="K22" s="7">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6">
+        <v>72.5</v>
+      </c>
+      <c r="C23" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="4">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I23" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J23" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="K23" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C24" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>51</v>
+      </c>
+      <c r="E24" s="7">
+        <v>18.5</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="4">
+        <v>20</v>
+      </c>
+      <c r="H24" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I24" s="6">
+        <v>51.1</v>
+      </c>
+      <c r="J24" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6">
+        <v>72.8</v>
+      </c>
+      <c r="C25" s="6">
+        <v>50.4</v>
+      </c>
+      <c r="D25" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E25" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="4">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I25" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="J25" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K25" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C26" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D26" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E26" s="7">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="4">
+        <v>22</v>
+      </c>
+      <c r="H26" s="6">
+        <v>72</v>
+      </c>
+      <c r="I26" s="6">
+        <v>51</v>
+      </c>
+      <c r="J26" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="K26" s="7">
+        <v>18.3</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C27" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="D27" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="E27" s="7">
+        <v>17.8</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="4">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I27" s="6">
+        <v>51</v>
+      </c>
+      <c r="J27" s="6">
+        <v>50.7</v>
+      </c>
+      <c r="K27" s="7">
+        <v>18.2</v>
+      </c>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="6">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6">
+        <v>50.6</v>
+      </c>
+      <c r="D28" s="6">
+        <v>50.1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4">
+        <v>24</v>
+      </c>
+      <c r="H28" s="6">
+        <v>72</v>
+      </c>
+      <c r="I28" s="6">
+        <v>50.8</v>
+      </c>
+      <c r="J28" s="6">
+        <v>50.9</v>
+      </c>
+      <c r="K28" s="7">
+        <v>18</v>
+      </c>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>25</v>
+      </c>
+      <c r="B29" s="14">
+        <v>72</v>
+      </c>
+      <c r="C29" s="14">
+        <v>50.6</v>
+      </c>
+      <c r="D29" s="14">
+        <v>51.1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="5">
+        <v>25</v>
+      </c>
+      <c r="H29" s="14">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="I29" s="14">
+        <v>51</v>
+      </c>
+      <c r="J29" s="14">
+        <v>51</v>
+      </c>
+      <c r="K29" s="15">
+        <v>18.2</v>
+      </c>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="24">
+        <f>AVERAGE(B5:B29)</f>
+        <v>72.299999999999983</v>
+      </c>
+      <c r="C30" s="24">
+        <f t="shared" ref="C30:E30" si="0">AVERAGE(C5:C29)</f>
+        <v>50.627999999999993</v>
+      </c>
+      <c r="D30" s="24">
+        <f t="shared" si="0"/>
+        <v>50.343999999999987</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="0"/>
+        <v>17.844000000000005</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="24">
+        <f>AVERAGE(H5:H29)</f>
+        <v>72.219999999999985</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" ref="I30:K30" si="1">AVERAGE(I5:I29)</f>
+        <v>51.048000000000002</v>
+      </c>
+      <c r="J30" s="24">
+        <f t="shared" si="1"/>
+        <v>50.560000000000009</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" si="1"/>
+        <v>18.115999999999996</v>
+      </c>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="26">
+        <f>MIN(B5:B29)</f>
+        <v>72</v>
+      </c>
+      <c r="C31" s="26">
+        <f t="shared" ref="C31:E31" si="2">MIN(C5:C29)</f>
+        <v>49.7</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="2"/>
+        <v>49.3</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="26">
+        <f>MIN(H5:H29)</f>
+        <v>72</v>
+      </c>
+      <c r="I31" s="26">
+        <f t="shared" ref="I31:K31" si="3">MIN(I5:I29)</f>
+        <v>50.3</v>
+      </c>
+      <c r="J31" s="26">
+        <f t="shared" si="3"/>
+        <v>50.1</v>
+      </c>
+      <c r="K31" s="27">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="26">
+        <f>MAX(B5:B29)</f>
+        <v>73</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" ref="C32:E32" si="4">MAX(C5:C29)</f>
+        <v>51.6</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="4"/>
+        <v>51.1</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="4"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="26">
+        <f>MAX(H5:H29)</f>
+        <v>72.5</v>
+      </c>
+      <c r="I32" s="26">
+        <f t="shared" ref="I32:K32" si="5">MAX(I5:I29)</f>
+        <v>51.5</v>
+      </c>
+      <c r="J32" s="26">
+        <f t="shared" si="5"/>
+        <v>51.1</v>
+      </c>
+      <c r="K32" s="27">
+        <f t="shared" si="5"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="26">
+        <f>B32-B31</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" ref="C33:E33" si="6">C32-C31</f>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="6"/>
+        <v>1.8000000000000043</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="26">
+        <f>H32-H31</f>
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="26">
+        <f t="shared" ref="I33:I34" si="7">I32-I31</f>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="J33" s="26">
+        <f t="shared" ref="J33:J34" si="8">J32-J31</f>
+        <v>1</v>
+      </c>
+      <c r="K33" s="26">
+        <f t="shared" ref="K33:K34" si="9">K32-K31</f>
+        <v>0.30000000000000071</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="26">
+        <f>_xlfn.STDEV.S(B5:B29)</f>
+        <v>0.33416562759605911</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" ref="C34:E34" si="10">_xlfn.STDEV.S(C5:C29)</f>
+        <v>0.46054315758677788</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="10"/>
+        <v>0.51241259417257456</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="10"/>
+        <v>0.35364765892999667</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="26">
+        <f>_xlfn.STDEV.S(H5:H29)</f>
+        <v>0.15275252316519597</v>
+      </c>
+      <c r="I34" s="26">
+        <f t="shared" ref="I34:K34" si="11">_xlfn.STDEV.S(I5:I29)</f>
+        <v>0.30973106614179607</v>
+      </c>
+      <c r="J34" s="26">
+        <f t="shared" si="11"/>
+        <v>0.31358146203711279</v>
+      </c>
+      <c r="K34" s="26">
+        <f t="shared" si="11"/>
+        <v>9.4339811320565778E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>